--- a/data/trans_orig/BARTHEL_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17638</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11148</v>
+        <v>11283</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26133</v>
+        <v>25511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1367409955202182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08642389987423596</v>
+        <v>0.08747073611486246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2025929062431374</v>
+        <v>0.1977767103484742</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -765,19 +765,19 @@
         <v>48470</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36720</v>
+        <v>36630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62484</v>
+        <v>62230</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1780582868858893</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1348959349355996</v>
+        <v>0.1345647974093421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2295413776624856</v>
+        <v>0.2286094283525048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -786,19 +786,19 @@
         <v>66108</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52663</v>
+        <v>52713</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82592</v>
+        <v>81480</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1647743705487264</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1312622917610617</v>
+        <v>0.1313876020634478</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2058615001096119</v>
+        <v>0.2030891448937602</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>111353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102858</v>
+        <v>103480</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117843</v>
+        <v>117708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8632590044797819</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7974070937568626</v>
+        <v>0.8022232896515258</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9135761001257641</v>
+        <v>0.9125292638851376</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>221</v>
@@ -836,19 +836,19 @@
         <v>223742</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>209728</v>
+        <v>209982</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>235492</v>
+        <v>235582</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8219417131141108</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7704586223375144</v>
+        <v>0.7713905716474954</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8651040650644004</v>
+        <v>0.865435202590658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>341</v>
@@ -857,19 +857,19 @@
         <v>335095</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>318611</v>
+        <v>319723</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>348540</v>
+        <v>348490</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8352256294512737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7941384998903882</v>
+        <v>0.79691085510624</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8687377082389384</v>
+        <v>0.8686123979365524</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11562</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6931</v>
+        <v>6207</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19577</v>
+        <v>19252</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07112956273656303</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04263669589349162</v>
+        <v>0.03818639843815517</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.120433715223435</v>
+        <v>0.1184342308134916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -982,19 +982,19 @@
         <v>20746</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12231</v>
+        <v>13085</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30372</v>
+        <v>30845</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1018983832518833</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06007684558160684</v>
+        <v>0.06426860616627987</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.14917910519911</v>
+        <v>0.1515010856700352</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -1003,19 +1003,19 @@
         <v>32309</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21902</v>
+        <v>22677</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44923</v>
+        <v>43353</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08823840375432478</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05981728729432595</v>
+        <v>0.06193422287087574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1226883495392678</v>
+        <v>0.118402307975656</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>150993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>142978</v>
+        <v>143303</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>155624</v>
+        <v>156348</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.928870437263437</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8795662847765653</v>
+        <v>0.8815657691865085</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9573633041065084</v>
+        <v>0.9618136015618449</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>181</v>
@@ -1053,19 +1053,19 @@
         <v>182851</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>173225</v>
+        <v>172752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>191366</v>
+        <v>190512</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8981016167481167</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8508208948008901</v>
+        <v>0.8484989143299646</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9399231544183932</v>
+        <v>0.9357313938337202</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>339</v>
@@ -1074,19 +1074,19 @@
         <v>333844</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>321230</v>
+        <v>322800</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>344251</v>
+        <v>343476</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9117615962456752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8773116504607322</v>
+        <v>0.881597692024344</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9401827127056741</v>
+        <v>0.9380657771291244</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6610</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2783</v>
+        <v>2801</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12777</v>
+        <v>13375</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04561466172335921</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01920338277303061</v>
+        <v>0.01932845592981367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08816896860297907</v>
+        <v>0.09229770469315203</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>13851</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7847</v>
+        <v>7891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22983</v>
+        <v>22820</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0948278467692556</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05372235618661939</v>
+        <v>0.05402419964092654</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1573454498710186</v>
+        <v>0.1562279678392129</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1220,19 +1220,19 @@
         <v>20462</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13141</v>
+        <v>12532</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31604</v>
+        <v>29393</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07031856967863154</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04516116931671585</v>
+        <v>0.04306754113501957</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1086121585114081</v>
+        <v>0.1010124989383114</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>138306</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>132139</v>
+        <v>131541</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142133</v>
+        <v>142115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9543853382766407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9118310313970209</v>
+        <v>0.907702295306848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9807966172269694</v>
+        <v>0.9806715440701863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>128</v>
@@ -1270,19 +1270,19 @@
         <v>132216</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>123084</v>
+        <v>123247</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138220</v>
+        <v>138176</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9051721532307444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8426545501289809</v>
+        <v>0.8437720321607871</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9462776438133805</v>
+        <v>0.9459758003590735</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>265</v>
@@ -1291,19 +1291,19 @@
         <v>270522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>259380</v>
+        <v>261591</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>277843</v>
+        <v>278452</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9296814303213684</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8913878414885918</v>
+        <v>0.8989875010616886</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9548388306832841</v>
+        <v>0.9569324588649804</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3419</v>
+        <v>4187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01664710576174953</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06929085484464073</v>
+        <v>0.08485674660995303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1416,19 +1416,19 @@
         <v>5721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2074</v>
+        <v>2047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11180</v>
+        <v>11956</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1458221991152628</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05285521141386306</v>
+        <v>0.05218538242638517</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.284959773185021</v>
+        <v>0.3047328123532115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1437,19 +1437,19 @@
         <v>6543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2425</v>
+        <v>2879</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12867</v>
+        <v>13027</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07386509158188816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02737213400764718</v>
+        <v>0.03250875021844333</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1452619734443968</v>
+        <v>0.1470674157468034</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>48521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45923</v>
+        <v>45155</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>49342</v>
@@ -1475,7 +1475,7 @@
         <v>0.9833528942382505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9307091451553592</v>
+        <v>0.9151432533900468</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,19 +1487,19 @@
         <v>33514</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28055</v>
+        <v>27279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37161</v>
+        <v>37188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8541778008847373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7150402268149791</v>
+        <v>0.6952671876467892</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9471447885861369</v>
+        <v>0.9478146175736148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>85</v>
@@ -1508,19 +1508,19 @@
         <v>82033</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75709</v>
+        <v>75549</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86151</v>
+        <v>85697</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9261349084181119</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.854738026555603</v>
+        <v>0.8529325842531966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9726278659923528</v>
+        <v>0.9674912497815567</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>36633</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27537</v>
+        <v>27796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49468</v>
+        <v>50061</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07540595350311517</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05668254550851523</v>
+        <v>0.0572156248347592</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1018273268687479</v>
+        <v>0.1030481597701685</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -1633,19 +1633,19 @@
         <v>88788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72134</v>
+        <v>72297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106324</v>
+        <v>108071</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1343017305725799</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1091098844149394</v>
+        <v>0.1093563490577624</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1608261491547512</v>
+        <v>0.1634685069696972</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -1654,19 +1654,19 @@
         <v>125421</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105426</v>
+        <v>106965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>146620</v>
+        <v>147273</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1093549884552114</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09192119806138659</v>
+        <v>0.09326327053258042</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1278382996619688</v>
+        <v>0.1284079599753045</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>449171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>436336</v>
+        <v>435743</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>458267</v>
+        <v>458008</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9245940464968848</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8981726731312519</v>
+        <v>0.8969518402298312</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9433174544914846</v>
+        <v>0.9427843751652407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>564</v>
@@ -1704,19 +1704,19 @@
         <v>572324</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>554788</v>
+        <v>553041</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>588978</v>
+        <v>588815</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.86569826942742</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8391738508452489</v>
+        <v>0.8365314930303028</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8908901155850606</v>
+        <v>0.8906436509422376</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1030</v>
@@ -1725,19 +1725,19 @@
         <v>1021495</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1000296</v>
+        <v>999643</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1041490</v>
+        <v>1039951</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8906450115447886</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8721617003380312</v>
+        <v>0.8715920400246955</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9080788019386135</v>
+        <v>0.9067367294674196</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>27652</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19213</v>
+        <v>18649</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38719</v>
+        <v>37650</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2010562461893817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1396995849893259</v>
+        <v>0.1355981487613443</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2815255180408734</v>
+        <v>0.2737534130400416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -2090,19 +2090,19 @@
         <v>67899</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55241</v>
+        <v>55208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82258</v>
+        <v>83394</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3148791027783535</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2561810027267203</v>
+        <v>0.2560242479909615</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3814708632600982</v>
+        <v>0.3867370059255483</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -2111,19 +2111,19 @@
         <v>95550</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79178</v>
+        <v>78454</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113307</v>
+        <v>112465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2705533021152748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2241948114896659</v>
+        <v>0.2221445868911834</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3208316097288674</v>
+        <v>0.318447460285289</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>109881</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98814</v>
+        <v>99883</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118320</v>
+        <v>118884</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7989437538106183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7184744819591266</v>
+        <v>0.7262465869599584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8603004150106741</v>
+        <v>0.8644018512386556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>138</v>
@@ -2161,19 +2161,19 @@
         <v>147735</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>133376</v>
+        <v>132240</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>160393</v>
+        <v>160426</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6851208972216465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6185291367399018</v>
+        <v>0.6132629940744517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7438189972732797</v>
+        <v>0.7439757520090383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>235</v>
@@ -2182,19 +2182,19 @@
         <v>257617</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>239860</v>
+        <v>240702</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>273989</v>
+        <v>274713</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7294466978847252</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6791683902711326</v>
+        <v>0.681552539714711</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.775805188510334</v>
+        <v>0.7778554131088166</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>27492</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17833</v>
+        <v>17967</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39994</v>
+        <v>39335</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.15940136978234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1033951910692742</v>
+        <v>0.1041765627742626</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2318916552352741</v>
+        <v>0.2280680230342789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -2307,19 +2307,19 @@
         <v>70103</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56056</v>
+        <v>55711</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85000</v>
+        <v>86074</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2837392012833428</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2268852709361983</v>
+        <v>0.2254913368407013</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3440350360641114</v>
+        <v>0.3483827048997388</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -2328,19 +2328,19 @@
         <v>97594</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80179</v>
+        <v>81515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115843</v>
+        <v>115988</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2326244325021666</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1911135586817595</v>
+        <v>0.1942970737079529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2761223522498723</v>
+        <v>0.2764680322230215</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>144978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>132476</v>
+        <v>133135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>154637</v>
+        <v>154503</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.84059863021766</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7681083447647262</v>
+        <v>0.771931976965721</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8966048089307258</v>
+        <v>0.8958234372257373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>171</v>
@@ -2378,19 +2378,19 @@
         <v>176964</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>162067</v>
+        <v>160993</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>191011</v>
+        <v>191356</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7162607987166572</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6559649639358887</v>
+        <v>0.6516172951002612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7731147290638019</v>
+        <v>0.7745086631592989</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>306</v>
@@ -2399,19 +2399,19 @@
         <v>321942</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>303693</v>
+        <v>303548</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>339357</v>
+        <v>338021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7673755674978333</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7238776477501278</v>
+        <v>0.7235319677769786</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8088864413182406</v>
+        <v>0.8057029262920472</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>17768</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10448</v>
+        <v>10371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28489</v>
+        <v>27778</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1068841137271287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06284808969957881</v>
+        <v>0.06238498530678484</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1713753957645875</v>
+        <v>0.1671002186453749</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -2524,19 +2524,19 @@
         <v>35921</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26194</v>
+        <v>24359</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48326</v>
+        <v>47922</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1870206231380332</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1363774985388064</v>
+        <v>0.1268235131562321</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2516035484638762</v>
+        <v>0.2495029102390217</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -2545,19 +2545,19 @@
         <v>53689</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40270</v>
+        <v>40266</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69286</v>
+        <v>68961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1498415258719552</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1123898343812258</v>
+        <v>0.1123778939615436</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1933705463353372</v>
+        <v>0.1924638997274314</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>148467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137746</v>
+        <v>138457</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155787</v>
+        <v>155864</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8931158862728713</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8286246042354128</v>
+        <v>0.8328997813546255</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9371519103004213</v>
+        <v>0.9376150146932152</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -2595,19 +2595,19 @@
         <v>156150</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143745</v>
+        <v>144149</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165877</v>
+        <v>167712</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8129793768619669</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7483964515361243</v>
+        <v>0.7504970897609783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.863622501461194</v>
+        <v>0.8731764868437679</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>283</v>
@@ -2616,19 +2616,19 @@
         <v>304617</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>289020</v>
+        <v>289345</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>318036</v>
+        <v>318040</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8501584741280449</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8066294536646628</v>
+        <v>0.8075361002725686</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8876101656187741</v>
+        <v>0.8876221060384564</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>10624</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5022</v>
+        <v>5262</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20522</v>
+        <v>19753</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.136029768144535</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06430702216111925</v>
+        <v>0.06737161832683437</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2627745313032911</v>
+        <v>0.2529310501892016</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -2741,19 +2741,19 @@
         <v>17419</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10249</v>
+        <v>10719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26105</v>
+        <v>26368</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2048104685406349</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1205012076072789</v>
+        <v>0.1260286612225067</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3069407117449802</v>
+        <v>0.3100349658209333</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -2762,19 +2762,19 @@
         <v>28042</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19321</v>
+        <v>18517</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39092</v>
+        <v>40540</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1718858421154735</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1184294226014646</v>
+        <v>0.1134976644064236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.239615893174725</v>
+        <v>0.2484874102457249</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>67473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57575</v>
+        <v>58344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73075</v>
+        <v>72835</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.863970231855465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7372254686967088</v>
+        <v>0.7470689498107983</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9356929778388807</v>
+        <v>0.9326283816731656</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -2812,19 +2812,19 @@
         <v>67631</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58945</v>
+        <v>58682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74801</v>
+        <v>74331</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7951895314593651</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6930592882550195</v>
+        <v>0.6899650341790666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.879498792392721</v>
+        <v>0.8739713387774931</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>119</v>
@@ -2833,19 +2833,19 @@
         <v>135104</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124054</v>
+        <v>122606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>143825</v>
+        <v>144629</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8281141578845265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.760384106825275</v>
+        <v>0.7515125897542749</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8815705773985353</v>
+        <v>0.8865023355935763</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>83535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66095</v>
+        <v>65983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103995</v>
+        <v>103008</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1506944869225727</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.119233288016799</v>
+        <v>0.119030934088114</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1876029743325744</v>
+        <v>0.1858225608029934</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>175</v>
@@ -2958,19 +2958,19 @@
         <v>191341</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167956</v>
+        <v>167773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217644</v>
+        <v>215166</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2586319349658828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2270219529711373</v>
+        <v>0.2267755727397475</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2941850881009682</v>
+        <v>0.2908349945658432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>247</v>
@@ -2979,19 +2979,19 @@
         <v>274876</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>245653</v>
+        <v>246373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>306326</v>
+        <v>312180</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2123983725749136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1898174967627449</v>
+        <v>0.1903734447404353</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2366996879368807</v>
+        <v>0.241223288235711</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>470799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>450339</v>
+        <v>451326</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>488239</v>
+        <v>488351</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8493055130774273</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8123970256674259</v>
+        <v>0.8141774391970068</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8807667119832011</v>
+        <v>0.8809690659118861</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>516</v>
@@ -3029,19 +3029,19 @@
         <v>548480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>522177</v>
+        <v>524655</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>571865</v>
+        <v>572048</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7413680650341172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7058149118990318</v>
+        <v>0.7091650054341567</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7729780470288626</v>
+        <v>0.7732244272602524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>943</v>
@@ -3050,19 +3050,19 @@
         <v>1019279</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>987829</v>
+        <v>981975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1048502</v>
+        <v>1047782</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7876016274250863</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7633003120631193</v>
+        <v>0.758776711764289</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8101825032372549</v>
+        <v>0.8096265552595647</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>24558</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17035</v>
+        <v>17007</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34745</v>
+        <v>34688</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1475349464112478</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1023405663227094</v>
+        <v>0.1021735899394888</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2087368073279448</v>
+        <v>0.2083945026029664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -3415,19 +3415,19 @@
         <v>69613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55417</v>
+        <v>55044</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86025</v>
+        <v>85073</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.267354907951725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2128340238765232</v>
+        <v>0.2113988460791911</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3303837621366187</v>
+        <v>0.326727406187487</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -3436,19 +3436,19 @@
         <v>94171</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75724</v>
+        <v>78491</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113404</v>
+        <v>114446</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2206279750073128</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1774089661600171</v>
+        <v>0.1838927495224503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2656878545761154</v>
+        <v>0.2681278676213052</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>141896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131709</v>
+        <v>131766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149419</v>
+        <v>149447</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8524650535887521</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7912631926720551</v>
+        <v>0.7916054973970332</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8976594336772904</v>
+        <v>0.897826410060511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>165</v>
@@ -3486,19 +3486,19 @@
         <v>190765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>174353</v>
+        <v>175305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204961</v>
+        <v>205334</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.732645092048275</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6696162378633813</v>
+        <v>0.6732725938125126</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7871659761234768</v>
+        <v>0.7886011539208088</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>314</v>
@@ -3507,19 +3507,19 @@
         <v>332661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>313428</v>
+        <v>312386</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>351108</v>
+        <v>348341</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7793720249926872</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7343121454238846</v>
+        <v>0.7318721323786949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.822591033839983</v>
+        <v>0.8161072504775498</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>18947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12347</v>
+        <v>11921</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27526</v>
+        <v>27090</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1116086162057834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07273033365133579</v>
+        <v>0.07022349891803215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1621412601057492</v>
+        <v>0.1595744463956668</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -3632,19 +3632,19 @@
         <v>40388</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28743</v>
+        <v>28669</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54777</v>
+        <v>54698</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1829136515362564</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1301740347812586</v>
+        <v>0.1298365427502798</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2480769588515664</v>
+        <v>0.2477198524935088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -3653,19 +3653,19 @@
         <v>59335</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45978</v>
+        <v>45598</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74860</v>
+        <v>75408</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1519204005479197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.117721512975971</v>
+        <v>0.1167481555173827</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1916694663314021</v>
+        <v>0.1930728832216587</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>150816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>142237</v>
+        <v>142673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>157416</v>
+        <v>157842</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8883913837942166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8378587398942514</v>
+        <v>0.840425553604334</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9272696663486643</v>
+        <v>0.9297765010819682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>156</v>
@@ -3703,19 +3703,19 @@
         <v>180417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>166028</v>
+        <v>166107</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>192062</v>
+        <v>192136</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8170863484637436</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7519230411484329</v>
+        <v>0.7522801475064904</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8698259652187409</v>
+        <v>0.87016345724972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>318</v>
@@ -3724,19 +3724,19 @@
         <v>331233</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>315708</v>
+        <v>315160</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>344590</v>
+        <v>344970</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8480795994520802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8083305336685979</v>
+        <v>0.8069271167783413</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8822784870240289</v>
+        <v>0.8832518444826173</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>12380</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6946</v>
+        <v>6834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20461</v>
+        <v>20961</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07947884560863087</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04458792536558477</v>
+        <v>0.04387517336215267</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1313553664769427</v>
+        <v>0.1345616707315015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -3849,19 +3849,19 @@
         <v>39868</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28040</v>
+        <v>28123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55132</v>
+        <v>54142</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2165501469599445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1523023997323283</v>
+        <v>0.1527533868353692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2994602176327734</v>
+        <v>0.294079648611383</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -3870,19 +3870,19 @@
         <v>52249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39457</v>
+        <v>39836</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69583</v>
+        <v>68890</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.153728133176665</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1160925213895684</v>
+        <v>0.1172068710665496</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2047306848074072</v>
+        <v>0.2026916703840557</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>143391</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>135310</v>
+        <v>134810</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>148825</v>
+        <v>148937</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9205211543913692</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8686446335230573</v>
+        <v>0.8654383292684982</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9554120746344152</v>
+        <v>0.9561248266378473</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -3920,19 +3920,19 @@
         <v>144238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>128974</v>
+        <v>129964</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156066</v>
+        <v>155983</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7834498530400554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7005397823672266</v>
+        <v>0.705920351388617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8476976002676718</v>
+        <v>0.8472466131646306</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>275</v>
@@ -3941,19 +3941,19 @@
         <v>287628</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>270294</v>
+        <v>270987</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>300420</v>
+        <v>300041</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.846271866823335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7952693151925931</v>
+        <v>0.7973083296159442</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8839074786104317</v>
+        <v>0.8827931289334503</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>12544</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7527</v>
+        <v>6903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21304</v>
+        <v>19170</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1426401837731262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08558705465241501</v>
+        <v>0.07849161590921896</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2422454077505484</v>
+        <v>0.2179764227778652</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -4066,19 +4066,19 @@
         <v>17749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10600</v>
+        <v>10307</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27774</v>
+        <v>28381</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1665972137494597</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0994942363186294</v>
+        <v>0.09674410067983903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2606969570710778</v>
+        <v>0.2663967391132633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -4087,19 +4087,19 @@
         <v>30293</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20311</v>
+        <v>20890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42465</v>
+        <v>42003</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1557637489421778</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1044344284162724</v>
+        <v>0.1074138064457585</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2183479283272944</v>
+        <v>0.215974894750458</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>75401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66641</v>
+        <v>68775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80418</v>
+        <v>81042</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8573598162268737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7577545922494513</v>
+        <v>0.7820235772221346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9144129453475849</v>
+        <v>0.9215083840907808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>74</v>
@@ -4137,19 +4137,19 @@
         <v>88787</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78762</v>
+        <v>78155</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95936</v>
+        <v>96229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8334027862505403</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7393030429289223</v>
+        <v>0.7336032608867368</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9005057636813707</v>
+        <v>0.903255899320161</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>152</v>
@@ -4158,19 +4158,19 @@
         <v>164188</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>152016</v>
+        <v>152478</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>174170</v>
+        <v>173591</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8442362510578222</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7816520716727056</v>
+        <v>0.7840251052495421</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8955655715837277</v>
+        <v>0.8925861935542415</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>68430</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54585</v>
+        <v>53788</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84086</v>
+        <v>83890</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1179960191507359</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09412203292751677</v>
+        <v>0.09274907300417343</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1449923848894151</v>
+        <v>0.1446538746040334</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>132</v>
@@ -4283,19 +4283,19 @@
         <v>167618</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>142315</v>
+        <v>144070</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194662</v>
+        <v>195302</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2171714422561379</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1843876900571078</v>
+        <v>0.1866612326536718</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2522102994574061</v>
+        <v>0.253039790159911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>207</v>
@@ -4304,19 +4304,19 @@
         <v>236048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>205625</v>
+        <v>209891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>263445</v>
+        <v>269208</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1746230114164906</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1521169296382272</v>
+        <v>0.1552729650009838</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1948907783833703</v>
+        <v>0.1991540557182019</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>511504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>495848</v>
+        <v>496044</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>525349</v>
+        <v>526146</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8820039808492641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8550076151105849</v>
+        <v>0.8553461253959666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9058779670724831</v>
+        <v>0.9072509269958263</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>518</v>
@@ -4354,19 +4354,19 @@
         <v>604206</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>577162</v>
+        <v>576522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>629509</v>
+        <v>627754</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7828285577438622</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7477897005425939</v>
+        <v>0.7469602098400888</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8156123099428922</v>
+        <v>0.8133387673463282</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1059</v>
@@ -4375,19 +4375,19 @@
         <v>1115710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1088313</v>
+        <v>1082550</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1146133</v>
+        <v>1141867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8253769885835094</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8051092216166297</v>
+        <v>0.800845944281798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8478830703617725</v>
+        <v>0.8447270349990158</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>17051</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11785</v>
+        <v>12467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24041</v>
+        <v>24576</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2572846672159774</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.177820509070112</v>
+        <v>0.1881092823868389</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3627566323888042</v>
+        <v>0.3708249111333115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -4740,19 +4740,19 @@
         <v>53299</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44373</v>
+        <v>44437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61499</v>
+        <v>61873</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3768058200291604</v>
+        <v>0.3768058200291602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3137044321208322</v>
+        <v>0.3141572242897223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4347818838511378</v>
+        <v>0.437424247670911</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>121</v>
@@ -4761,19 +4761,19 @@
         <v>70350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60672</v>
+        <v>60814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81764</v>
+        <v>80812</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3386730522032866</v>
+        <v>0.3386730522032865</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2920859677411288</v>
+        <v>0.2927692045600664</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3936262484420758</v>
+        <v>0.3890430588072679</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>49222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42232</v>
+        <v>41697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54488</v>
+        <v>53806</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7427153327840226</v>
+        <v>0.7427153327840227</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6372433676111946</v>
+        <v>0.6291750888666882</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.822179490929888</v>
+        <v>0.8118907176131611</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>167</v>
@@ -4811,19 +4811,19 @@
         <v>88150</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>79950</v>
+        <v>79576</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97076</v>
+        <v>97012</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6231941799708397</v>
+        <v>0.6231941799708396</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5652181161488622</v>
+        <v>0.5625757523290887</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.686295567879168</v>
+        <v>0.6858427757102777</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>235</v>
@@ -4832,19 +4832,19 @@
         <v>137371</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>125957</v>
+        <v>126909</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147049</v>
+        <v>146907</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6613269477967134</v>
+        <v>0.6613269477967133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6063737515579242</v>
+        <v>0.610956941192732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7079140322588711</v>
+        <v>0.7072307954399331</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>30443</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22873</v>
+        <v>23163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39254</v>
+        <v>40017</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1516078541967493</v>
+        <v>0.1516078541967494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1139085752704382</v>
+        <v>0.1153500276295428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1954844864531508</v>
+        <v>0.1992868150551848</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -4957,19 +4957,19 @@
         <v>73526</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63420</v>
+        <v>63148</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84273</v>
+        <v>85424</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2441511024753547</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2105931098566484</v>
+        <v>0.2096914878125225</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2798378071172213</v>
+        <v>0.2836616351851957</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>191</v>
@@ -4978,19 +4978,19 @@
         <v>103969</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91086</v>
+        <v>90667</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118981</v>
+        <v>116996</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2071297338878123</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1814646338914526</v>
+        <v>0.1806300777650154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2370377157723196</v>
+        <v>0.2330830072075219</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>170359</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>161548</v>
+        <v>160785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177929</v>
+        <v>177639</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8483921458032506</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8045155135468492</v>
+        <v>0.800713184944815</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8860914247295617</v>
+        <v>0.8846499723704569</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>424</v>
@@ -5028,19 +5028,19 @@
         <v>227623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>216876</v>
+        <v>215725</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>237729</v>
+        <v>238001</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7558488975246455</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7201621928827787</v>
+        <v>0.7163383648148046</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7894068901433515</v>
+        <v>0.7903085121874776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>669</v>
@@ -5049,19 +5049,19 @@
         <v>397982</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>382970</v>
+        <v>384955</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>410865</v>
+        <v>411284</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7928702661121877</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7629622842276803</v>
+        <v>0.7669169927924779</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8185353661085472</v>
+        <v>0.8193699222349844</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>22156</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15496</v>
+        <v>15172</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31097</v>
+        <v>30420</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09661928409888379</v>
+        <v>0.09661928409888383</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06757609106265693</v>
+        <v>0.06616239413485996</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1356078491131726</v>
+        <v>0.1326572503239356</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -5174,19 +5174,19 @@
         <v>45111</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36498</v>
+        <v>36254</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54318</v>
+        <v>54937</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1917112441210009</v>
+        <v>0.191711244121001</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1551086580943811</v>
+        <v>0.154071782211239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2308398365879674</v>
+        <v>0.2334715366962552</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -5195,19 +5195,19 @@
         <v>67267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55734</v>
+        <v>55785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78925</v>
+        <v>79099</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1447782854938957</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1199564798647541</v>
+        <v>0.1200661859250873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1698696325222037</v>
+        <v>0.1702455199521526</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>207158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>198217</v>
+        <v>198894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>213818</v>
+        <v>214142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9033807159011161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8643921508868271</v>
+        <v>0.8673427496760641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9324239089373429</v>
+        <v>0.9338376058651401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>364</v>
@@ -5245,19 +5245,19 @@
         <v>190194</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>180987</v>
+        <v>180368</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>198807</v>
+        <v>199051</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.808288755878999</v>
+        <v>0.8082887558789991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7691601634120326</v>
+        <v>0.7665284633037446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.844891341905619</v>
+        <v>0.8459282177887606</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>657</v>
@@ -5266,19 +5266,19 @@
         <v>397352</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>385694</v>
+        <v>385520</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>408885</v>
+        <v>408834</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8552217145061043</v>
+        <v>0.8552217145061042</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8301303674777962</v>
+        <v>0.8297544800478476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8800435201352459</v>
+        <v>0.879933814074913</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>20714</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14548</v>
+        <v>14681</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29838</v>
+        <v>29683</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09761742546895498</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06855972686197558</v>
+        <v>0.06918698156072116</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1406170639794657</v>
+        <v>0.1398875885917535</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -5391,19 +5391,19 @@
         <v>31113</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23862</v>
+        <v>24515</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39578</v>
+        <v>40053</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1509434759843625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1157671735195046</v>
+        <v>0.1189344636029943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1920142092930723</v>
+        <v>0.1943171174965266</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -5412,19 +5412,19 @@
         <v>51827</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41581</v>
+        <v>41654</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63892</v>
+        <v>63768</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1238935268022088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09940210427437125</v>
+        <v>0.09957585822619808</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1527359944248449</v>
+        <v>0.152439866713256</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>191479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>182355</v>
+        <v>182510</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>197645</v>
+        <v>197512</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9023825745310451</v>
+        <v>0.902382574531045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8593829360205345</v>
+        <v>0.8601124114082467</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9314402731380245</v>
+        <v>0.9308130184392789</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -5462,19 +5462,19 @@
         <v>175009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166544</v>
+        <v>166069</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>182260</v>
+        <v>181607</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8490565240156375</v>
+        <v>0.8490565240156377</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8079857907069278</v>
+        <v>0.8056828825034734</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8842328264804954</v>
+        <v>0.8810655363970061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>605</v>
@@ -5483,19 +5483,19 @@
         <v>366488</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>354423</v>
+        <v>354547</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>376734</v>
+        <v>376661</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8761064731977912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8472640055751554</v>
+        <v>0.847560133286744</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9005978957256291</v>
+        <v>0.9004241417738019</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>90364</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76473</v>
+        <v>76292</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106746</v>
+        <v>105456</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1275279976107117</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1079240728278184</v>
+        <v>0.1076686220321214</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1506478924846307</v>
+        <v>0.1488267693747496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>379</v>
@@ -5608,19 +5608,19 @@
         <v>203048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184531</v>
+        <v>185307</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>221082</v>
+        <v>221352</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2296857837641405</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2087399095804263</v>
+        <v>0.2096173423738521</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2500859781470473</v>
+        <v>0.2503914324421765</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>519</v>
@@ -5629,19 +5629,19 @@
         <v>293412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>270956</v>
+        <v>269950</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>318043</v>
+        <v>318357</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1842337561000991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1701337964325612</v>
+        <v>0.1695017703086228</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1996998212725937</v>
+        <v>0.1998967281273892</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>618218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>601836</v>
+        <v>603126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>632109</v>
+        <v>632290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8724720023892883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8493521075153693</v>
+        <v>0.8511732306252505</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8920759271721815</v>
+        <v>0.8923313779678785</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1289</v>
@@ -5679,19 +5679,19 @@
         <v>680976</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>662942</v>
+        <v>662672</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>699493</v>
+        <v>698717</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7703142162358597</v>
+        <v>0.7703142162358596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7499140218529528</v>
+        <v>0.7496085675578236</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7912600904195736</v>
+        <v>0.790382657626148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2166</v>
@@ -5700,19 +5700,19 @@
         <v>1299195</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1274564</v>
+        <v>1274250</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1321651</v>
+        <v>1322657</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8157662438999009</v>
+        <v>0.815766243899901</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.800300178727407</v>
+        <v>0.8001032718726109</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8298662035674391</v>
+        <v>0.8304982296913772</v>
       </c>
     </row>
     <row r="18">
